--- a/Results/Tables/Table_1.xlsx
+++ b/Results/Tables/Table_1.xlsx
@@ -26,7 +26,7 @@
     <t>CHILDREN</t>
   </si>
   <si>
-    <t>INCIDENT</t>
+    <t>CASES</t>
   </si>
   <si>
     <t>AC</t>
